--- a/biology/Histoire de la zoologie et de la botanique/Ebbe_Schmidt_Nielsen/Ebbe_Schmidt_Nielsen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ebbe_Schmidt_Nielsen/Ebbe_Schmidt_Nielsen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ebbe Schmidt Nielsen est un entomologiste danois, né le 7 juin 1950 à Ry et mort le 7 mars 2001 en Californie d’une crise cardiaque.
 Il fait ses études à l’université d'Aarhus. De 1981 à sa mort, il vit et travaille en Australie. Il est spécialisé en taxinomie des insectes et contribue à la mise en place du Global Biodiversity Information Facility. Après sa mort, le GBIF fait un prix en son honneur.
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Biographie sur le site du GBIF
 Notices d'autorité : VIAF ISNI BnF (données) IdRef LCCN GND CiNii Pays-Bas Israël NUKAT WorldCat 
